--- a/data/trans_dic/P59A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06477487076609245</v>
+        <v>0.06089709986400632</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09905117698663762</v>
+        <v>0.1015810786800235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1270204294702706</v>
+        <v>0.1311435219407833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09128076618656041</v>
+        <v>0.0918866886636137</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03401811201610989</v>
+        <v>0.03375313126499774</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08333803654817594</v>
+        <v>0.08308253155231152</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09951799250181882</v>
+        <v>0.09376375918232979</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08963539186358982</v>
+        <v>0.09097019586818049</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0572004131822092</v>
+        <v>0.05619494192258258</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.102502195062454</v>
+        <v>0.1015107451513588</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1209164786023077</v>
+        <v>0.1212686258562806</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1011518354564224</v>
+        <v>0.1010114340496855</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.143815552836026</v>
+        <v>0.1374707605466188</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1952717126373725</v>
+        <v>0.1908785434767062</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2221087127441163</v>
+        <v>0.2243857331758197</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.183574500661168</v>
+        <v>0.1828428357070147</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09536763113008247</v>
+        <v>0.09588590225687019</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1784905765565452</v>
+        <v>0.1768660896617025</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1781605115808233</v>
+        <v>0.1764129936113214</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.156184573550869</v>
+        <v>0.1578859681889561</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1019907291522774</v>
+        <v>0.1051382335613967</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1702344935829844</v>
+        <v>0.1662424079057069</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1836653044101335</v>
+        <v>0.1838420595688827</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1590722974233678</v>
+        <v>0.1585245199336778</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1679436237364269</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1674136671099988</v>
+        <v>0.1674136671099987</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.08790139918218391</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08428067888426301</v>
+        <v>0.08427424722748306</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1181076564958191</v>
+        <v>0.1175261979362106</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1343805927358109</v>
+        <v>0.1278164757627154</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.129735021219835</v>
+        <v>0.1304214813762083</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06230779344139029</v>
+        <v>0.06020390221742532</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09467812846543708</v>
+        <v>0.09570213015828639</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1198244067146327</v>
+        <v>0.12134288732376</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1227784831975846</v>
+        <v>0.1245024071577625</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08294567998869913</v>
+        <v>0.08067268864780719</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1165010697044934</v>
+        <v>0.1152813080417473</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1393700241234196</v>
+        <v>0.1368745867669615</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1363570476884387</v>
+        <v>0.131662582115316</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1549579990191768</v>
+        <v>0.1591640440800055</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1944038851745931</v>
+        <v>0.1972568245245348</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2128902346034199</v>
+        <v>0.2065668959407726</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2098225660588311</v>
+        <v>0.2139967741734203</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1251894732672835</v>
+        <v>0.1238325894243921</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1669336624401158</v>
+        <v>0.1690735645930678</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2006575734274691</v>
+        <v>0.1955230377889873</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1887622954086868</v>
+        <v>0.191667637880642</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.130123688561292</v>
+        <v>0.1285631876544628</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.170702330202892</v>
+        <v>0.1673978571931433</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1937239903210705</v>
+        <v>0.1904444582029348</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1881909925144424</v>
+        <v>0.1884508330608003</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09631432845076941</v>
+        <v>0.1014467205294795</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1401729351103205</v>
+        <v>0.1426213528101131</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.130442080590022</v>
+        <v>0.13059311991567</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.150031467550569</v>
+        <v>0.1504365956896885</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07470565143781775</v>
+        <v>0.07322200713099036</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1034830944323681</v>
+        <v>0.09994037730819048</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1041463729141856</v>
+        <v>0.09857348208234262</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1361577872820265</v>
+        <v>0.1370244448770012</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09733612628055213</v>
+        <v>0.09503496555388077</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1349644691871338</v>
+        <v>0.1351219896518878</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1254788763133134</v>
+        <v>0.1242944502893151</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1545308379571899</v>
+        <v>0.1532756108130059</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.194990520257188</v>
+        <v>0.202321222636048</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2367224387937943</v>
+        <v>0.2387773926637383</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2186181614222248</v>
+        <v>0.2198591133602991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2492218453203955</v>
+        <v>0.2505836560570884</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1532177722689876</v>
+        <v>0.151173905833167</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1875262463924924</v>
+        <v>0.1849794612712206</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1777605672524866</v>
+        <v>0.172194208871956</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2122341919199568</v>
+        <v>0.2119293948714661</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1553196531207164</v>
+        <v>0.1578218852686261</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1968820612790799</v>
+        <v>0.1993849616713591</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.179132559923419</v>
+        <v>0.1821989311252404</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2140499012692472</v>
+        <v>0.2165702936371525</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1418192629512765</v>
+        <v>0.1395906278575607</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.108408169600537</v>
+        <v>0.1041431014980637</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1486846311025325</v>
+        <v>0.1485350396486642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1227545639856997</v>
+        <v>0.1214263091427905</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1025011010510888</v>
+        <v>0.1012439217656575</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1311615815455478</v>
+        <v>0.1293506913772841</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1062469182171676</v>
+        <v>0.1072171178045044</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09006750197506924</v>
+        <v>0.08983542179949844</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1304906104440154</v>
+        <v>0.1283639956798442</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1279313810488026</v>
+        <v>0.1265875486613972</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1352849197975108</v>
+        <v>0.1366067600319403</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1135598405170388</v>
+        <v>0.1130539011441711</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2164449052024758</v>
+        <v>0.2132466383366757</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1788311904629404</v>
+        <v>0.1755959836413425</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2249172978684608</v>
+        <v>0.2284376304943699</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1967301856252778</v>
+        <v>0.196509017511162</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1617249632481873</v>
+        <v>0.1624804516364679</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1993244398154882</v>
+        <v>0.2009149143103857</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1676206234755629</v>
+        <v>0.169252164782854</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1431989726805274</v>
+        <v>0.1369813185126602</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1753606410277797</v>
+        <v>0.1723726725411006</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1795689689558225</v>
+        <v>0.1781739458081863</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1826009301440102</v>
+        <v>0.1839671067589642</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1549313589258289</v>
+        <v>0.1561205988294183</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1194146847497842</v>
+        <v>0.1192883250571037</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1340211504308723</v>
+        <v>0.1348668559932951</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1539609280528983</v>
+        <v>0.1556537174161889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1418574240684282</v>
+        <v>0.143078393107544</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08587015906277999</v>
+        <v>0.0872650148974607</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1234153508396352</v>
+        <v>0.1234615688353393</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1253288917674998</v>
+        <v>0.1236741914364244</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1216190966698882</v>
+        <v>0.1229857601210919</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1069383259986586</v>
+        <v>0.1060700874764048</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1342196862495614</v>
+        <v>0.133295024894924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1440621099657039</v>
+        <v>0.1440496062482402</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1380100807399491</v>
+        <v>0.1373586234160603</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1576245902527514</v>
+        <v>0.1593876512377565</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1742724592027449</v>
+        <v>0.1755975000669664</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1959440889974912</v>
+        <v>0.1976241441750715</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1857296586692203</v>
+        <v>0.1862788582399737</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1194734612322002</v>
+        <v>0.122054940217543</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1616082821397263</v>
+        <v>0.1632137723156067</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.158465056543249</v>
+        <v>0.15856219000454</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.153926723652598</v>
+        <v>0.1547100820222892</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.131469001982865</v>
+        <v>0.1329254811615362</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1612325150463496</v>
+        <v>0.1619901552269761</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1714893317782281</v>
+        <v>0.171877021074582</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.165514468450771</v>
+        <v>0.1634603102612082</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>16841</v>
+        <v>15833</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>27030</v>
+        <v>27720</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>36393</v>
+        <v>37574</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>32931</v>
+        <v>33149</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8825</v>
+        <v>8756</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>21071</v>
+        <v>21007</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27647</v>
+        <v>26049</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>31086</v>
+        <v>31549</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>29711</v>
+        <v>29188</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>53888</v>
+        <v>53367</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>68236</v>
+        <v>68435</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>71572</v>
+        <v>71472</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>37390</v>
+        <v>35741</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>53287</v>
+        <v>52088</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>63637</v>
+        <v>64289</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>66227</v>
+        <v>65963</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>24740</v>
+        <v>24875</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45130</v>
+        <v>44719</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49495</v>
+        <v>49010</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>54166</v>
+        <v>54756</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>52975</v>
+        <v>54610</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>89497</v>
+        <v>87398</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>103647</v>
+        <v>103747</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>112554</v>
+        <v>112167</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>30573</v>
+        <v>30571</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>47243</v>
+        <v>47010</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>59230</v>
+        <v>56337</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>65781</v>
+        <v>66130</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>21988</v>
+        <v>21246</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>36937</v>
+        <v>37337</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>47772</v>
+        <v>48377</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>60529</v>
+        <v>61379</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>59360</v>
+        <v>57733</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>92051</v>
+        <v>91087</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>116994</v>
+        <v>114899</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>136362</v>
+        <v>131667</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>56212</v>
+        <v>57737</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>77761</v>
+        <v>78902</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>93835</v>
+        <v>91047</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>106389</v>
+        <v>108506</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>44178</v>
+        <v>43700</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>65126</v>
+        <v>65961</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>79999</v>
+        <v>77952</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>93058</v>
+        <v>94490</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>93123</v>
+        <v>92006</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>134877</v>
+        <v>132266</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>162621</v>
+        <v>159868</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>188198</v>
+        <v>188458</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>22638</v>
+        <v>23844</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>43231</v>
+        <v>43986</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>41943</v>
+        <v>41992</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>57384</v>
+        <v>57539</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>19888</v>
+        <v>19493</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>31161</v>
+        <v>30094</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>37013</v>
+        <v>35032</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>54285</v>
+        <v>54631</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>48791</v>
+        <v>47637</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>82265</v>
+        <v>82361</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>84942</v>
+        <v>84140</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>120715</v>
+        <v>119734</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>45831</v>
+        <v>47554</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>73008</v>
+        <v>73642</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>70296</v>
+        <v>70695</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>95322</v>
+        <v>95843</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>40789</v>
+        <v>40245</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56468</v>
+        <v>55701</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>63175</v>
+        <v>61196</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>84616</v>
+        <v>84495</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>77855</v>
+        <v>79109</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>120006</v>
+        <v>121532</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>121262</v>
+        <v>123338</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>167209</v>
+        <v>169178</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>61048</v>
+        <v>60089</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>43585</v>
+        <v>41870</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>61424</v>
+        <v>61362</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>61223</v>
+        <v>60560</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>51633</v>
+        <v>51000</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>62917</v>
+        <v>62048</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>59629</v>
+        <v>60173</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>56991</v>
+        <v>56844</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>121904</v>
+        <v>119918</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>112801</v>
+        <v>111616</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>131814</v>
+        <v>133102</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>128493</v>
+        <v>127920</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>93172</v>
+        <v>91795</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>71898</v>
+        <v>70597</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>92917</v>
+        <v>94371</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>98117</v>
+        <v>98007</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>81466</v>
+        <v>81847</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>95614</v>
+        <v>96377</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>94073</v>
+        <v>94989</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>90610</v>
+        <v>86676</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>163822</v>
+        <v>161030</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>158332</v>
+        <v>157101</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>177916</v>
+        <v>179247</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>175305</v>
+        <v>176650</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>153836</v>
+        <v>153673</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>185397</v>
+        <v>186567</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>225082</v>
+        <v>227557</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>248112</v>
+        <v>250248</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>118695</v>
+        <v>120623</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>175717</v>
+        <v>175782</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>199663</v>
+        <v>197027</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>227579</v>
+        <v>230137</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>285580</v>
+        <v>283262</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>376771</v>
+        <v>374176</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>440118</v>
+        <v>440080</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>499634</v>
+        <v>497276</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>203060</v>
+        <v>205331</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>241078</v>
+        <v>242911</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>286459</v>
+        <v>288915</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>324846</v>
+        <v>325807</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>165144</v>
+        <v>168712</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>230095</v>
+        <v>232381</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>252453</v>
+        <v>252608</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>288035</v>
+        <v>289501</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>351090</v>
+        <v>354979</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>452600</v>
+        <v>454726</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>523910</v>
+        <v>525094</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>599208</v>
+        <v>591771</v>
       </c>
     </row>
     <row r="24">
